--- a/output/Coronavirus high risk population estimate - CA.xlsx
+++ b/output/Coronavirus high risk population estimate - CA.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\California_Covid\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82633450-3173-4C8B-BA52-9C6E34CB93C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAD2CDA-7779-45E3-AC5A-EC7AE183EF9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-10245" windowWidth="28996" windowHeight="15795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-10245" windowWidth="28996" windowHeight="15795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Medicaid" sheetId="1" r:id="rId1"/>
-    <sheet name="MEPS" sheetId="2" r:id="rId2"/>
-    <sheet name="MEPS_Calculations" sheetId="5" r:id="rId3"/>
-    <sheet name="ACS" sheetId="3" r:id="rId4"/>
-    <sheet name="Final Estimate" sheetId="4" r:id="rId5"/>
+    <sheet name="MedicaidRatios" sheetId="6" r:id="rId1"/>
+    <sheet name="Medicaid" sheetId="1" r:id="rId2"/>
+    <sheet name="MEPS" sheetId="2" r:id="rId3"/>
+    <sheet name="MEPS_Calculations" sheetId="5" r:id="rId4"/>
+    <sheet name="ACS" sheetId="3" r:id="rId5"/>
+    <sheet name="Final Estimate" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="88">
   <si>
     <t>NYC</t>
   </si>
@@ -229,12 +230,6 @@
     <t>Population</t>
   </si>
   <si>
-    <t> 0</t>
-  </si>
-  <si>
-    <t>0 </t>
-  </si>
-  <si>
     <t>Medicaid+Medicare</t>
   </si>
   <si>
@@ -302,6 +297,9 @@
   </si>
   <si>
     <t>Red is One Plus Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
   </si>
 </sst>
 </file>
@@ -695,10 +693,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0058D41-5480-4AAF-BF20-F4EABA446DDE}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA109"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3411,16 +3490,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="82.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
@@ -3473,18 +3554,19 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <f>MEPS_Calculations!J5</f>
-        <v>0.49058392673774215</v>
+        <f>MEPS_Calculations!J8</f>
+        <v>9.020586868011489E-2</v>
       </c>
       <c r="D5">
-        <v>0.76499115311582944</v>
+        <f>MEPS_Calculations!K8</f>
+        <v>0.41933044222652482</v>
       </c>
       <c r="H5" t="s">
         <v>49</v>
@@ -3499,6 +3581,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -3507,6 +3590,7 @@
         <v>0.34770106598628037</v>
       </c>
       <c r="D6">
+        <f>MEPS_Calculations!K6</f>
         <v>0.81293975907001981</v>
       </c>
       <c r="H6" t="s">
@@ -3522,15 +3606,17 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C7">
-        <f>MEPS_Calculations!J7</f>
-        <v>0.92397951101019171</v>
+        <f>MEPS_Calculations!J9</f>
+        <v>0.18499267028678792</v>
       </c>
       <c r="D7">
-        <v>0.80467321941934566</v>
+        <f>MEPS_Calculations!K9</f>
+        <v>2.7426264513545977</v>
       </c>
       <c r="H7" t="s">
         <v>57</v>
@@ -3545,15 +3631,17 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <f>MEPS_Calculations!J8</f>
-        <v>9.020586868011489E-2</v>
+        <f>MEPS_Calculations!J7</f>
+        <v>0.92397951101019171</v>
       </c>
       <c r="D8">
-        <v>0.41933044222652482</v>
+        <f>MEPS_Calculations!K7</f>
+        <v>0.80467321941934566</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -3568,15 +3656,20 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <f>MEPS_Calculations!J9</f>
-        <v>0.18499267028678792</v>
+        <f>MEPS_Calculations!J5</f>
+        <v>0.49058392673774215</v>
       </c>
       <c r="D9">
-        <v>2.742626</v>
+        <f>MEPS_Calculations!K5</f>
+        <v>0.76499115311582944</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
       </c>
       <c r="H9" t="s">
         <v>53</v>
@@ -3591,6 +3684,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" t="s">
         <v>54</v>
       </c>
@@ -3604,22 +3700,26 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C11">
-        <f>MEPS_Calculations!J11</f>
-        <v>1.658168086567396</v>
+        <f>MEPS_Calculations!J14</f>
+        <v>1.5055322597076548</v>
       </c>
       <c r="D11">
-        <f>MEPS_Calculations!K11</f>
-        <v>1.5093138030573299</v>
+        <f>MEPS_Calculations!K14</f>
+        <v>1.0339317677204773</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -3631,41 +3731,49 @@
         <f>MEPS_Calculations!K12</f>
         <v>1.3197207472793806</v>
       </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
       <c r="H12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <f>MEPS_Calculations!J15</f>
+        <v>0.80493671670142264</v>
+      </c>
+      <c r="D13">
+        <f>MEPS_Calculations!K15</f>
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f>MEPS_Calculations!J13</f>
         <v>3.6669518227103901</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f>MEPS_Calculations!K13</f>
         <v>2.0558306608090637</v>
       </c>
-      <c r="H13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <f>MEPS_Calculations!J14</f>
-        <v>1.5055322597076548</v>
-      </c>
-      <c r="D14">
-        <f>MEPS_Calculations!K14</f>
-        <v>1.0339317677204773</v>
-      </c>
       <c r="I14" t="s">
         <v>3</v>
       </c>
@@ -3674,16 +3782,17 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <f>MEPS_Calculations!J15</f>
-        <v>0.80493671670142264</v>
+        <f>MEPS_Calculations!J11</f>
+        <v>1.658168086567396</v>
       </c>
       <c r="D15">
-        <f>MEPS_Calculations!K15</f>
-        <v>0</v>
+        <f>MEPS_Calculations!K11</f>
+        <v>1.5093138030573299</v>
       </c>
       <c r="H15" t="s">
         <v>45</v>
@@ -3703,11 +3812,11 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3728,6 +3837,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -3744,12 +3854,13 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3770,8 +3881,9 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3792,8 +3904,9 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3814,22 +3927,23 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <f>MEPS_Calculations!J23</f>
-        <v>1.5544479606557653</v>
+        <f>MEPS_Calculations!J26</f>
+        <v>1.2120672231908767</v>
       </c>
       <c r="D23">
-        <f>MEPS_Calculations!K23</f>
-        <v>1.6846355515277058</v>
+        <f>MEPS_Calculations!K26</f>
+        <v>0.92160584391470413</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>17</v>
       </c>
@@ -3843,61 +3957,65 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <f>MEPS_Calculations!J27</f>
+        <v>3.6906241612123964</v>
+      </c>
+      <c r="D25">
+        <f>MEPS_Calculations!K27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <f>MEPS_Calculations!J25</f>
         <v>2.6326697294538026</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <f>MEPS_Calculations!K25</f>
         <v>1.3355132966296412</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <f>MEPS_Calculations!J23</f>
+        <v>1.5544479606557653</v>
+      </c>
+      <c r="D27">
+        <f>MEPS_Calculations!K23</f>
+        <v>1.6846355515277058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="C26">
-        <f>MEPS_Calculations!J26</f>
-        <v>1.2120672231908767</v>
-      </c>
-      <c r="D26">
-        <f>MEPS_Calculations!K26</f>
-        <v>0.92160584391470413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27">
-        <f>MEPS_Calculations!J27</f>
-        <v>3.6906241612123964</v>
-      </c>
-      <c r="D27">
-        <f>MEPS_Calculations!K27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
       <c r="C29">
-        <f>MEPS_Calculations!J29</f>
-        <v>0.64348014623892547</v>
+        <f>MEPS_Calculations!J32</f>
+        <v>0.30914201671914571</v>
       </c>
       <c r="D29">
-        <f>MEPS_Calculations!K29</f>
-        <v>0.53624884918579896</v>
+        <f>MEPS_Calculations!K32</f>
+        <v>0.47210785294318885</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>17</v>
       </c>
@@ -3911,61 +4029,65 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
       <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <f>MEPS_Calculations!J33</f>
+        <v>9.1218797101150037E-2</v>
+      </c>
+      <c r="D31">
+        <f>MEPS_Calculations!K33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <f>MEPS_Calculations!J31</f>
         <v>2.3841439157909559</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <f>MEPS_Calculations!K31</f>
         <v>1.2454237128891028</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <f>MEPS_Calculations!J29</f>
+        <v>0.64348014623892547</v>
+      </c>
+      <c r="D33">
+        <f>MEPS_Calculations!K29</f>
+        <v>0.53624884918579896</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
         <v>50</v>
       </c>
-      <c r="C32">
-        <f>MEPS_Calculations!J32</f>
-        <v>0.30914201671914571</v>
-      </c>
-      <c r="D32">
-        <f>MEPS_Calculations!K32</f>
-        <v>0.47210785294318885</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33">
-        <f>MEPS_Calculations!J33</f>
-        <v>9.1218797101150037E-2</v>
-      </c>
-      <c r="D33">
-        <f>MEPS_Calculations!K33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
       <c r="C35">
-        <f>MEPS_Calculations!J35</f>
-        <v>1.0255492884396911</v>
+        <f>MEPS_Calculations!J38</f>
+        <v>0.46536556005859542</v>
       </c>
       <c r="D35">
-        <f>MEPS_Calculations!K35</f>
-        <v>0.76448167807890743</v>
+        <f>MEPS_Calculations!K38</f>
+        <v>0.47981387302981759</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
       <c r="B36" t="s">
         <v>17</v>
       </c>
@@ -3979,50 +4101,64 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
       <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <f>MEPS_Calculations!J39</f>
+        <v>0.14824086882910412</v>
+      </c>
+      <c r="D37">
+        <f>MEPS_Calculations!K39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" t="s">
         <v>19</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <f>MEPS_Calculations!J37</f>
         <v>2.125076129622784</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <f>MEPS_Calculations!K37</f>
         <v>1.2854155254435773</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38">
-        <f>MEPS_Calculations!J38</f>
-        <v>0.46536556005859542</v>
-      </c>
-      <c r="D38">
-        <f>MEPS_Calculations!K38</f>
-        <v>0.47981387302981759</v>
-      </c>
-    </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <f>MEPS_Calculations!J39</f>
-        <v>0.14824086882910412</v>
+        <f>MEPS_Calculations!J35</f>
+        <v>1.0255492884396911</v>
       </c>
       <c r="D39">
-        <f>MEPS_Calculations!K39</f>
-        <v>0</v>
+        <f>MEPS_Calculations!K35</f>
+        <v>0.76448167807890743</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B35:D39">
+    <sortCondition ref="B35:B39" customList="Chronic Lung,Heart Disease,HIV,Cancer,Diabetes"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A35:A39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F9CD51-FEF9-44E9-945B-71E5BE04CDF3}">
   <dimension ref="A1:AT39"/>
   <sheetViews>
@@ -4050,7 +4186,7 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4065,10 +4201,10 @@
       </c>
       <c r="K1" s="5"/>
       <c r="L1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
@@ -4083,10 +4219,10 @@
       </c>
       <c r="AA1" s="8"/>
       <c r="AB1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AH1" s="11"/>
       <c r="AI1" s="11"/>
@@ -4100,7 +4236,7 @@
       </c>
       <c r="AP1" s="11"/>
       <c r="AQ1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
@@ -4286,7 +4422,7 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>20</v>
@@ -4319,7 +4455,7 @@
         <v>0.76499115311582944</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="10"/>
@@ -4332,7 +4468,7 @@
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AG5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AH5" s="12">
         <v>0.2049049</v>
@@ -4470,7 +4606,7 @@
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
@@ -4482,7 +4618,7 @@
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AG7" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AH7" s="12">
         <v>0.75947339999999997</v>
@@ -4599,7 +4735,7 @@
         <v>2.7426264513545977</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="10"/>
@@ -4612,7 +4748,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AG9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH9" s="12">
         <v>0.47539310000000001</v>
@@ -4698,7 +4834,7 @@
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>20</v>
@@ -4732,7 +4868,7 @@
       </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -4744,7 +4880,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AG11" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH11" s="12">
         <v>0.82038960000000005</v>
@@ -4861,7 +4997,7 @@
         <v>2.0558306608090637</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R13" s="9"/>
       <c r="S13" s="10"/>
@@ -4874,7 +5010,7 @@
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AG13" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH13" s="12">
         <v>0.34805190000000003</v>
@@ -5016,7 +5152,7 @@
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AG15" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH15" s="12">
         <v>0.41061120000000001</v>
@@ -5082,7 +5218,7 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>20</v>
@@ -5109,7 +5245,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="Q17" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R17" s="9"/>
       <c r="S17" s="10"/>
@@ -5323,7 +5459,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="Q21" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R21" s="9"/>
       <c r="S21" s="10"/>
@@ -5402,7 +5538,7 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>20</v>
@@ -5543,7 +5679,7 @@
         <v>1.3355132966296412</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R25" s="9"/>
       <c r="S25" s="10"/>
@@ -5709,7 +5845,7 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>20</v>
@@ -5889,7 +6025,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>20</v>
@@ -6086,26 +6222,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -6113,7 +6251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -6139,320 +6277,390 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="C4">
-        <v>59914</v>
-      </c>
-      <c r="D4">
-        <v>6690</v>
-      </c>
-      <c r="E4">
-        <v>1293</v>
-      </c>
-      <c r="F4">
-        <v>51047</v>
-      </c>
-      <c r="G4">
-        <v>6827</v>
-      </c>
-      <c r="H4">
-        <v>2783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>306819</v>
+      </c>
+      <c r="D4" s="1">
+        <v>23134</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7176</v>
+      </c>
+      <c r="F4" s="1">
+        <v>253091</v>
+      </c>
+      <c r="G4" s="1">
+        <v>22477</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="C5">
-        <v>3729</v>
-      </c>
-      <c r="D5">
-        <v>413</v>
-      </c>
-      <c r="E5">
-        <v>96</v>
-      </c>
-      <c r="F5">
-        <v>2465</v>
-      </c>
-      <c r="G5">
-        <v>182</v>
-      </c>
-      <c r="H5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <f>C$4*Medicaid!E54*MEPS!$C5</f>
+        <v>2634.8384450281092</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D$4*Medicaid!F54*MEPS!$C5</f>
+        <v>197.20473249132601</v>
+      </c>
+      <c r="E5" s="1">
+        <f>E$4*Medicaid!G54*MEPS!$C5</f>
+        <v>73.535246830470115</v>
+      </c>
+      <c r="F5" s="1">
+        <f>F$4*Medicaid!J54*MEPS!$D5</f>
+        <v>14104.512330727244</v>
+      </c>
+      <c r="G5" s="1">
+        <f>G$4*Medicaid!K54*MEPS!$D5</f>
+        <v>692.75884071953146</v>
+      </c>
+      <c r="H5" s="1">
+        <f>H$4*Medicaid!L54*MEPS!$D5</f>
+        <v>363.12070603565121</v>
+      </c>
+      <c r="I5" s="1">
+        <f>I$4*Medicaid!M54*MEPS!G5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>4210</v>
-      </c>
-      <c r="D6">
-        <v>690</v>
-      </c>
-      <c r="E6">
-        <v>160</v>
-      </c>
-      <c r="F6">
-        <v>4682</v>
-      </c>
-      <c r="G6">
-        <v>855</v>
-      </c>
-      <c r="H6">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <f>C$4*Medicaid!E55*MEPS!$C6</f>
+        <v>22861.801168086185</v>
+      </c>
+      <c r="D6" s="1">
+        <f>D$4*Medicaid!F55*MEPS!$C6</f>
+        <v>2528.9444551895663</v>
+      </c>
+      <c r="E6" s="1">
+        <f>E$4*Medicaid!G55*MEPS!$C6</f>
+        <v>938.65769198850148</v>
+      </c>
+      <c r="F6" s="1">
+        <f>F$4*Medicaid!J55*MEPS!$D6</f>
+        <v>39133.219494242738</v>
+      </c>
+      <c r="G6" s="1">
+        <f>G$4*Medicaid!K55*MEPS!$D6</f>
+        <v>4743.5272320145305</v>
+      </c>
+      <c r="H6" s="1">
+        <f>H$4*Medicaid!L55*MEPS!$D6</f>
+        <v>2818.2400495535808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <f>C$4*Medicaid!E56*MEPS!$C7</f>
+        <v>2185.2317450317964</v>
+      </c>
+      <c r="D7" s="1">
+        <f>D$4*Medicaid!F56*MEPS!$C7</f>
+        <v>34.236963475316415</v>
+      </c>
+      <c r="E7" s="1">
+        <f>E$4*Medicaid!G56*MEPS!$C7</f>
+        <v>3.1860177647471759</v>
+      </c>
+      <c r="F7" s="1">
+        <f>F$4*Medicaid!J56*MEPS!$D7</f>
+        <v>15895.670230475111</v>
+      </c>
+      <c r="G7" s="1">
+        <f>G$4*Medicaid!K56*MEPS!$D7</f>
+        <v>221.92565308955022</v>
+      </c>
+      <c r="H7" s="1">
+        <f>H$4*Medicaid!L56*MEPS!$D7</f>
+        <v>34.613042866675563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>1321</v>
-      </c>
-      <c r="D8">
-        <v>328</v>
-      </c>
-      <c r="E8">
-        <v>69</v>
-      </c>
-      <c r="F8">
-        <v>3635</v>
-      </c>
-      <c r="G8">
-        <v>546</v>
-      </c>
-      <c r="H8">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <f>C$4*Medicaid!E57*MEPS!$C8</f>
+        <v>10801.139291327032</v>
+      </c>
+      <c r="D8" s="1">
+        <f>D$4*Medicaid!F57*MEPS!$C8</f>
+        <v>1808.3539338522469</v>
+      </c>
+      <c r="E8" s="1">
+        <f>E$4*Medicaid!G57*MEPS!$C8</f>
+        <v>608.01473824153777</v>
+      </c>
+      <c r="F8" s="1">
+        <f>F$4*Medicaid!J57*MEPS!$D8</f>
+        <v>10508.626368444779</v>
+      </c>
+      <c r="G8" s="1">
+        <f>G$4*Medicaid!K57*MEPS!$D8</f>
+        <v>1049.0251172675407</v>
+      </c>
+      <c r="H8" s="1">
+        <f>H$4*Medicaid!L57*MEPS!$D8</f>
+        <v>474.17429417726652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
-        <v>15934</v>
-      </c>
-      <c r="D9">
-        <v>2172</v>
-      </c>
-      <c r="E9">
-        <v>367</v>
-      </c>
-      <c r="F9">
-        <v>6752</v>
-      </c>
-      <c r="G9">
-        <v>1138</v>
-      </c>
-      <c r="H9">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <f>C$4*Medicaid!E58*MEPS!$C9</f>
+        <v>43379.999401474779</v>
+      </c>
+      <c r="D9" s="1">
+        <f>D$4*Medicaid!F58*MEPS!$C9</f>
+        <v>3992.6374998128958</v>
+      </c>
+      <c r="E9" s="1">
+        <f>E$4*Medicaid!G58*MEPS!$C9</f>
+        <v>1082.8843474438636</v>
+      </c>
+      <c r="F9" s="1">
+        <f>F$4*Medicaid!J58*MEPS!$D9</f>
+        <v>56825.232336405461</v>
+      </c>
+      <c r="G9" s="1">
+        <f>G$4*Medicaid!K58*MEPS!$D9</f>
+        <v>6356.8828631316892</v>
+      </c>
+      <c r="H9" s="1">
+        <f>H$4*Medicaid!L58*MEPS!$D9</f>
+        <v>2610.4267412286376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10">
-        <v>25194</v>
-      </c>
-      <c r="D10">
-        <v>3602</v>
-      </c>
-      <c r="E10">
-        <v>691</v>
-      </c>
-      <c r="F10">
-        <v>17533</v>
-      </c>
-      <c r="G10">
-        <v>2721</v>
-      </c>
-      <c r="H10">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <f>SUM(C5:C9)</f>
+        <v>81863.010050947894</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10:H10" si="0">SUM(D5:D9)</f>
+        <v>8561.3775848213518</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>2706.2780422691203</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>136467.26076029532</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>13064.119706222842</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>6300.5748338618123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="C11">
-        <v>21887</v>
-      </c>
-      <c r="D11">
-        <v>181758</v>
-      </c>
-      <c r="E11">
-        <v>128799</v>
-      </c>
-      <c r="F11">
-        <v>27253</v>
-      </c>
-      <c r="G11">
-        <v>237000</v>
-      </c>
-      <c r="H11">
-        <v>189949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>106527</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1100198</v>
+      </c>
+      <c r="E11" s="1">
+        <v>725507</v>
+      </c>
+      <c r="F11" s="1">
+        <v>116380</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1245016</v>
+      </c>
+      <c r="H11" s="1">
+        <v>946216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C12">
-        <v>3637</v>
-      </c>
-      <c r="D12">
-        <v>29978</v>
-      </c>
-      <c r="E12">
-        <v>25537</v>
-      </c>
-      <c r="F12">
-        <v>4758</v>
-      </c>
-      <c r="G12">
-        <v>22882</v>
-      </c>
-      <c r="H12">
-        <v>22257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <f>C$11*Medicaid!E54*MEPS!$C11</f>
+        <v>15268.160294844325</v>
+      </c>
+      <c r="D12" s="1">
+        <f>D$11*Medicaid!F54*MEPS!$C11</f>
+        <v>156528.2484107221</v>
+      </c>
+      <c r="E12" s="1">
+        <f>E$11*Medicaid!G54*MEPS!$C11</f>
+        <v>124082.34834112678</v>
+      </c>
+      <c r="F12" s="1">
+        <f>F$11*Medicaid!J54*MEPS!$D11</f>
+        <v>15991.721326019384</v>
+      </c>
+      <c r="G12" s="1">
+        <f>G$11*Medicaid!K54*MEPS!$D11</f>
+        <v>94613.727138440416</v>
+      </c>
+      <c r="H12" s="1">
+        <f>H$11*Medicaid!L54*MEPS!$D11</f>
+        <v>87266.392112065601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
-        <v>8226</v>
-      </c>
-      <c r="D13">
-        <v>100219</v>
-      </c>
-      <c r="E13">
-        <v>84978</v>
-      </c>
-      <c r="F13">
-        <v>7685</v>
-      </c>
-      <c r="G13">
-        <v>91219</v>
-      </c>
-      <c r="H13">
-        <v>100568</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <f>C$11*Medicaid!E55*MEPS!$C12</f>
+        <v>40158.941818269304</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D$11*Medicaid!F55*MEPS!$C12</f>
+        <v>608490.47095293086</v>
+      </c>
+      <c r="E13" s="1">
+        <f>E$11*Medicaid!G55*MEPS!$C12</f>
+        <v>480132.1540414698</v>
+      </c>
+      <c r="F13" s="1">
+        <f>F$11*Medicaid!J55*MEPS!$D12</f>
+        <v>29212.646928104798</v>
+      </c>
+      <c r="G13" s="1">
+        <f>G$11*Medicaid!K55*MEPS!$D12</f>
+        <v>426541.86655428627</v>
+      </c>
+      <c r="H13" s="1">
+        <f>H$11*Medicaid!L55*MEPS!$D12</f>
+        <v>445925.3706076119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14">
-        <v>747</v>
-      </c>
-      <c r="D14">
-        <v>1289</v>
-      </c>
-      <c r="E14">
-        <v>274</v>
-      </c>
-      <c r="F14">
-        <v>120</v>
-      </c>
-      <c r="G14">
-        <v>165</v>
-      </c>
-      <c r="H14">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <f>C$11*Medicaid!E56*MEPS!$C13</f>
+        <v>3301.2785043720191</v>
+      </c>
+      <c r="D14" s="1">
+        <f>D$11*Medicaid!F56*MEPS!$C13</f>
+        <v>7084.7181267317746</v>
+      </c>
+      <c r="E14" s="1">
+        <f>E$11*Medicaid!G56*MEPS!$C13</f>
+        <v>1401.5693340573575</v>
+      </c>
+      <c r="F14" s="1">
+        <f>F$11*Medicaid!J56*MEPS!$D13</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f>G$11*Medicaid!K56*MEPS!$D13</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>H$11*Medicaid!L56*MEPS!$D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15">
-        <v>1701</v>
-      </c>
-      <c r="D15">
-        <v>31369</v>
-      </c>
-      <c r="E15">
-        <v>24095</v>
-      </c>
-      <c r="F15">
-        <v>3597</v>
-      </c>
-      <c r="G15">
-        <v>35162</v>
-      </c>
-      <c r="H15">
-        <v>29494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <f>C$11*Medicaid!E57*MEPS!$C14</f>
+        <v>14882.979256760838</v>
+      </c>
+      <c r="D15" s="1">
+        <f>D$11*Medicaid!F57*MEPS!$C14</f>
+        <v>341307.96099802072</v>
+      </c>
+      <c r="E15" s="1">
+        <f>E$11*Medicaid!G57*MEPS!$C14</f>
+        <v>243958.60811078982</v>
+      </c>
+      <c r="F15" s="1">
+        <f>F$11*Medicaid!J57*MEPS!$D14</f>
+        <v>12345.690730935876</v>
+      </c>
+      <c r="G15" s="1">
+        <f>G$11*Medicaid!K57*MEPS!$D14</f>
+        <v>148453.43982787573</v>
+      </c>
+      <c r="H15" s="1">
+        <f>H$11*Medicaid!L57*MEPS!$D14</f>
+        <v>118077.27377807022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16">
-        <v>9474</v>
-      </c>
-      <c r="D16">
-        <v>96035</v>
-      </c>
-      <c r="E16">
-        <v>59503</v>
-      </c>
-      <c r="F16">
-        <v>9477</v>
-      </c>
-      <c r="G16">
-        <v>103811</v>
-      </c>
-      <c r="H16">
-        <v>79106</v>
+      <c r="C16" s="1">
+        <f>C$11*Medicaid!E58*MEPS!$C15</f>
+        <v>50907.553400587873</v>
+      </c>
+      <c r="D16" s="1">
+        <f>D$11*Medicaid!F58*MEPS!$C15</f>
+        <v>641793.38815935608</v>
+      </c>
+      <c r="E16" s="1">
+        <f>E$11*Medicaid!G58*MEPS!$C15</f>
+        <v>370046.66160463303</v>
+      </c>
+      <c r="F16" s="1">
+        <f>F$11*Medicaid!J58*MEPS!$D15</f>
+        <v>51554.431507344838</v>
+      </c>
+      <c r="G16" s="1">
+        <f>G$11*Medicaid!K58*MEPS!$D15</f>
+        <v>694710.60256592487</v>
+      </c>
+      <c r="H16" s="1">
+        <f>H$11*Medicaid!L58*MEPS!$D15</f>
+        <v>501990.10962000361</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6460,23 +6668,29 @@
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17">
-        <v>23784</v>
-      </c>
-      <c r="D17">
-        <v>258890</v>
-      </c>
-      <c r="E17">
-        <v>194386</v>
-      </c>
-      <c r="F17">
-        <v>25638</v>
-      </c>
-      <c r="G17">
-        <v>253240</v>
-      </c>
-      <c r="H17">
-        <v>231472</v>
+      <c r="C17" s="1">
+        <f>SUM(C12:C16)</f>
+        <v>124518.91327483437</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17:H17" si="1">SUM(D12:D16)</f>
+        <v>1755204.7866477617</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>1219621.3414320769</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>109104.49049240489</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>1364319.6360865273</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>1153259.1461177515</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -6486,23 +6700,16 @@
       <c r="B18" t="s">
         <v>63</v>
       </c>
-      <c r="C18">
-        <v>179552</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18">
-        <v>228924</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="C18" s="1">
+        <v>575575</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>679222</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6510,23 +6717,15 @@
       <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C19">
-        <v>17093</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>30424</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+      <c r="C19" s="1">
+        <f>C18*Medicaid!E54*MEPS!C17</f>
+        <v>54794.740000000005</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <f>F18*Medicaid!J54</f>
+        <v>90268.603799999997</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -6534,23 +6733,15 @@
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20">
-        <v>38478</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>43541</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+      <c r="C20" s="1">
+        <f>C19*Medicaid!E55*MEPS!C18</f>
+        <v>11742.512782</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
+        <f>F19*Medicaid!J55</f>
+        <v>17169.088442759999</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -6558,23 +6749,15 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21">
-        <v>6913</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>5242</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+      <c r="C21" s="1">
+        <f>C20*Medicaid!E56*MEPS!C19</f>
+        <v>452.08674210699996</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <f>F20*Medicaid!J56</f>
+        <v>393.172125339204</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -6582,23 +6765,15 @@
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22">
-        <v>6841</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>11812</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+      <c r="C22" s="1">
+        <f>C21*Medicaid!E57*MEPS!C20</f>
+        <v>17.2245048742767</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <f>F21*Medicaid!J57</f>
+        <v>20.287681667502927</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6606,23 +6781,15 @@
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23">
-        <v>51747</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>67189</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+      <c r="C23" s="1">
+        <f>C22*Medicaid!E58*MEPS!C21</f>
+        <v>4.9641023047665449</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <f>F22*Medicaid!J58*MEPS!D21</f>
+        <v>5.9544345694121086</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6630,24 +6797,6 @@
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24">
-        <v>300624</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>387133</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -6656,23 +6805,23 @@
       <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C25">
-        <v>26664</v>
-      </c>
-      <c r="D25">
-        <v>82735</v>
-      </c>
-      <c r="E25">
-        <v>67325</v>
-      </c>
-      <c r="F25">
-        <v>33917</v>
-      </c>
-      <c r="G25">
-        <v>116299</v>
-      </c>
-      <c r="H25">
-        <v>133309</v>
+      <c r="C25" s="1">
+        <v>112719</v>
+      </c>
+      <c r="D25" s="1">
+        <v>252737</v>
+      </c>
+      <c r="E25" s="1">
+        <v>209917</v>
+      </c>
+      <c r="F25" s="1">
+        <v>116569</v>
+      </c>
+      <c r="G25" s="1">
+        <v>350436</v>
+      </c>
+      <c r="H25" s="1">
+        <v>371051</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -6680,23 +6829,29 @@
       <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C26">
-        <v>8543</v>
-      </c>
-      <c r="D26">
-        <v>26313</v>
-      </c>
-      <c r="E26">
-        <v>25740</v>
-      </c>
-      <c r="F26">
-        <v>4721</v>
-      </c>
-      <c r="G26">
-        <v>16068</v>
-      </c>
-      <c r="H26">
-        <v>22141</v>
+      <c r="C26" s="1">
+        <f>C$25*Medicaid!E54*MEPS!$C23</f>
+        <v>13006.510107497154</v>
+      </c>
+      <c r="D26" s="1">
+        <f>D$25*Medicaid!F54*MEPS!$C23</f>
+        <v>28948.5850929275</v>
+      </c>
+      <c r="E26" s="1">
+        <f>E$25*Medicaid!G54*MEPS!$C23</f>
+        <v>28903.647337007533</v>
+      </c>
+      <c r="F26" s="1">
+        <f>F$25*Medicaid!J54*MEPS!$D23</f>
+        <v>14277.536258204058</v>
+      </c>
+      <c r="G26" s="1">
+        <f>G$25*Medicaid!K54*MEPS!$D23</f>
+        <v>23737.844115579854</v>
+      </c>
+      <c r="H26" s="1">
+        <f>H$25*Medicaid!L54*MEPS!$D23</f>
+        <v>30503.07908314322</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -6704,23 +6859,29 @@
       <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="C27">
-        <v>10672</v>
-      </c>
-      <c r="D27">
-        <v>48584</v>
-      </c>
-      <c r="E27">
-        <v>47306</v>
-      </c>
-      <c r="F27">
-        <v>10560</v>
-      </c>
-      <c r="G27">
-        <v>53123</v>
-      </c>
-      <c r="H27">
-        <v>72863</v>
+      <c r="C27" s="1">
+        <f>C$25*Medicaid!E55*MEPS!$C24</f>
+        <v>51311.406691337688</v>
+      </c>
+      <c r="D27" s="1">
+        <f>D$25*Medicaid!F55*MEPS!$C24</f>
+        <v>168789.71741803686</v>
+      </c>
+      <c r="E27" s="1">
+        <f>E$25*Medicaid!G55*MEPS!$C24</f>
+        <v>167749.41910580342</v>
+      </c>
+      <c r="F27" s="1">
+        <f>F$25*Medicaid!J55*MEPS!$D24</f>
+        <v>37896.630554607655</v>
+      </c>
+      <c r="G27" s="1">
+        <f>G$25*Medicaid!K55*MEPS!$D24</f>
+        <v>155496.42802186447</v>
+      </c>
+      <c r="H27" s="1">
+        <f>H$25*Medicaid!L55*MEPS!$D24</f>
+        <v>226480.32055050152</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -6728,23 +6889,29 @@
       <c r="B28" t="s">
         <v>41</v>
       </c>
-      <c r="C28">
-        <v>3307</v>
-      </c>
-      <c r="D28">
-        <v>2132</v>
-      </c>
-      <c r="E28">
-        <v>521</v>
-      </c>
-      <c r="F28">
-        <v>2020</v>
-      </c>
-      <c r="G28">
-        <v>1439</v>
-      </c>
-      <c r="H28">
-        <v>495</v>
+      <c r="C28" s="1">
+        <f>C$25*Medicaid!E56*MEPS!$C25</f>
+        <v>16016.133395866453</v>
+      </c>
+      <c r="D28" s="1">
+        <f>D$25*Medicaid!F56*MEPS!$C25</f>
+        <v>7462.058229058699</v>
+      </c>
+      <c r="E28" s="1">
+        <f>E$25*Medicaid!G56*MEPS!$C25</f>
+        <v>1859.3394049181343</v>
+      </c>
+      <c r="F28" s="1">
+        <f>F$25*Medicaid!J56*MEPS!$D25</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <f>G$25*Medicaid!K56*MEPS!$D25</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <f>H$25*Medicaid!L56*MEPS!$D25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -6752,23 +6919,29 @@
       <c r="B29" t="s">
         <v>19</v>
       </c>
-      <c r="C29">
-        <v>3019</v>
-      </c>
-      <c r="D29">
-        <v>20801</v>
-      </c>
-      <c r="E29">
-        <v>18347</v>
-      </c>
-      <c r="F29">
-        <v>3141</v>
-      </c>
-      <c r="G29">
-        <v>23915</v>
-      </c>
-      <c r="H29">
-        <v>29714</v>
+      <c r="C29" s="1">
+        <f>C$25*Medicaid!E57*MEPS!$C26</f>
+        <v>11306.24736082695</v>
+      </c>
+      <c r="D29" s="1">
+        <f>D$25*Medicaid!F57*MEPS!$C26</f>
+        <v>56290.559980336897</v>
+      </c>
+      <c r="E29" s="1">
+        <f>E$25*Medicaid!G57*MEPS!$C26</f>
+        <v>50677.283467514033</v>
+      </c>
+      <c r="F29" s="1">
+        <f>F$25*Medicaid!J57*MEPS!$D26</f>
+        <v>8033.0595929007459</v>
+      </c>
+      <c r="G29" s="1">
+        <f>G$25*Medicaid!K57*MEPS!$D26</f>
+        <v>27144.692381826888</v>
+      </c>
+      <c r="H29" s="1">
+        <f>H$25*Medicaid!L57*MEPS!$D26</f>
+        <v>30079.493134622906</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -6776,23 +6949,29 @@
       <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C30">
-        <v>14407</v>
-      </c>
-      <c r="D30">
-        <v>54570</v>
-      </c>
-      <c r="E30">
-        <v>38827</v>
-      </c>
-      <c r="F30">
-        <v>12064</v>
-      </c>
-      <c r="G30">
-        <v>50497</v>
-      </c>
-      <c r="H30">
-        <v>50610</v>
+      <c r="C30" s="1">
+        <f>C$25*Medicaid!E58*MEPS!$C27</f>
+        <v>50497.199230956707</v>
+      </c>
+      <c r="D30" s="1">
+        <f>D$25*Medicaid!F58*MEPS!$C27</f>
+        <v>138210.43970690772</v>
+      </c>
+      <c r="E30" s="1">
+        <f>E$25*Medicaid!G58*MEPS!$C27</f>
+        <v>100371.4341665259</v>
+      </c>
+      <c r="F30" s="1">
+        <f>F$25*Medicaid!J58*MEPS!$D27</f>
+        <v>57636.438651370721</v>
+      </c>
+      <c r="G30" s="1">
+        <f>G$25*Medicaid!K58*MEPS!$D27</f>
+        <v>218254.96224676981</v>
+      </c>
+      <c r="H30" s="1">
+        <f>H$25*Medicaid!L58*MEPS!$D27</f>
+        <v>219717.6256695122</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -6800,24 +6979,6 @@
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31">
-        <v>39949</v>
-      </c>
-      <c r="D31">
-        <v>152399</v>
-      </c>
-      <c r="E31">
-        <v>130739</v>
-      </c>
-      <c r="F31">
-        <v>32506</v>
-      </c>
-      <c r="G31">
-        <v>145042</v>
-      </c>
-      <c r="H31">
-        <v>175822</v>
-      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -6826,23 +6987,23 @@
       <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C32">
-        <v>430213</v>
-      </c>
-      <c r="D32">
-        <v>25573</v>
-      </c>
-      <c r="E32">
-        <v>2384</v>
-      </c>
-      <c r="F32">
-        <v>477575</v>
-      </c>
-      <c r="G32">
-        <v>25070</v>
-      </c>
-      <c r="H32">
-        <v>3835</v>
+      <c r="C32" s="1">
+        <v>2435055</v>
+      </c>
+      <c r="D32" s="1">
+        <v>108886</v>
+      </c>
+      <c r="E32" s="1">
+        <v>15091</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2545436</v>
+      </c>
+      <c r="G32" s="1">
+        <v>97863</v>
+      </c>
+      <c r="H32" s="1">
+        <v>21359</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -6850,23 +7011,29 @@
       <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="C33">
-        <v>25250</v>
-      </c>
-      <c r="D33">
-        <v>1490</v>
-      </c>
-      <c r="E33">
-        <v>167</v>
-      </c>
-      <c r="F33">
-        <v>16377</v>
-      </c>
-      <c r="G33">
-        <v>853</v>
-      </c>
-      <c r="H33">
-        <v>157</v>
+      <c r="C33" s="1">
+        <f>C$32*Medicaid!E54*MEPS!$C29</f>
+        <v>71664.447847298143</v>
+      </c>
+      <c r="D33" s="1">
+        <f>D$32*Medicaid!F54*MEPS!$C29</f>
+        <v>3180.9869562694453</v>
+      </c>
+      <c r="E33" s="1">
+        <f>E$32*Medicaid!G54*MEPS!$C29</f>
+        <v>529.97378300146011</v>
+      </c>
+      <c r="F33" s="1">
+        <f>F$32*Medicaid!J54*MEPS!$D29</f>
+        <v>159708.63116117532</v>
+      </c>
+      <c r="G33" s="1">
+        <f>G$32*Medicaid!K54*MEPS!$D29</f>
+        <v>3395.8389747245778</v>
+      </c>
+      <c r="H33" s="1">
+        <f>H$32*Medicaid!L54*MEPS!$D29</f>
+        <v>899.47064548641049</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -6874,23 +7041,29 @@
       <c r="B34" t="s">
         <v>17</v>
       </c>
-      <c r="C34">
-        <v>55373</v>
-      </c>
-      <c r="D34">
-        <v>4829</v>
-      </c>
-      <c r="E34">
-        <v>539</v>
-      </c>
-      <c r="F34">
-        <v>57592</v>
-      </c>
-      <c r="G34">
-        <v>4435</v>
-      </c>
-      <c r="H34">
-        <v>812</v>
+      <c r="C34" s="1">
+        <f>C$32*Medicaid!E55*MEPS!$C30</f>
+        <v>287819.53797193273</v>
+      </c>
+      <c r="D34" s="1">
+        <f>D$32*Medicaid!F55*MEPS!$C30</f>
+        <v>18881.82234145984</v>
+      </c>
+      <c r="E34" s="1">
+        <f>E$32*Medicaid!G55*MEPS!$C30</f>
+        <v>3131.310512352622</v>
+      </c>
+      <c r="F34" s="1">
+        <f>F$32*Medicaid!J55*MEPS!$D30</f>
+        <v>334710.21359635273</v>
+      </c>
+      <c r="G34" s="1">
+        <f>G$32*Medicaid!K55*MEPS!$D30</f>
+        <v>17563.840453877328</v>
+      </c>
+      <c r="H34" s="1">
+        <f>H$32*Medicaid!L55*MEPS!$D30</f>
+        <v>5273.1124915103737</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -6898,23 +7071,29 @@
       <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="C35">
-        <v>1206</v>
-      </c>
-      <c r="D35">
-        <v>15</v>
-      </c>
-      <c r="E35">
+      <c r="C35" s="1">
+        <f>C$32*Medicaid!E56*MEPS!$C31</f>
+        <v>8551.7273370429248</v>
+      </c>
+      <c r="D35" s="1">
+        <f>D$32*Medicaid!F56*MEPS!$C31</f>
+        <v>79.459599529246574</v>
+      </c>
+      <c r="E35" s="1">
+        <f>E$32*Medicaid!G56*MEPS!$C31</f>
+        <v>3.3037988809282921</v>
+      </c>
+      <c r="F35" s="1">
+        <f>F$32*Medicaid!J56*MEPS!$D31</f>
         <v>0</v>
       </c>
-      <c r="F35">
-        <v>3414</v>
-      </c>
-      <c r="G35">
-        <v>37</v>
-      </c>
-      <c r="H35">
-        <v>2</v>
+      <c r="G35" s="1">
+        <f>G$32*Medicaid!K56*MEPS!$D31</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <f>H$32*Medicaid!L56*MEPS!$D31</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -6922,23 +7101,29 @@
       <c r="B36" t="s">
         <v>19</v>
       </c>
-      <c r="C36">
-        <v>23059</v>
-      </c>
-      <c r="D36">
-        <v>3044</v>
-      </c>
-      <c r="E36">
-        <v>308</v>
-      </c>
-      <c r="F36">
-        <v>22119</v>
-      </c>
-      <c r="G36">
-        <v>2578</v>
-      </c>
-      <c r="H36">
-        <v>428</v>
+      <c r="C36" s="1">
+        <f>C$32*Medicaid!E57*MEPS!$C32</f>
+        <v>221190.3715452078</v>
+      </c>
+      <c r="D36" s="1">
+        <f>D$32*Medicaid!F57*MEPS!$C32</f>
+        <v>21962.151067493262</v>
+      </c>
+      <c r="E36" s="1">
+        <f>E$32*Medicaid!G57*MEPS!$C32</f>
+        <v>3299.2849219045606</v>
+      </c>
+      <c r="F36" s="1">
+        <f>F$32*Medicaid!J57*MEPS!$D32</f>
+        <v>163579.55186854585</v>
+      </c>
+      <c r="G36" s="1">
+        <f>G$32*Medicaid!K57*MEPS!$D32</f>
+        <v>7069.0922472390439</v>
+      </c>
+      <c r="H36" s="1">
+        <f>H$32*Medicaid!L57*MEPS!$D32</f>
+        <v>1614.6810085744196</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -6946,23 +7131,29 @@
       <c r="B37" t="s">
         <v>20</v>
       </c>
-      <c r="C37">
-        <v>67894</v>
-      </c>
-      <c r="D37">
-        <v>4926</v>
-      </c>
-      <c r="E37">
-        <v>402</v>
-      </c>
-      <c r="F37">
-        <v>33909</v>
-      </c>
-      <c r="G37">
-        <v>2173</v>
-      </c>
-      <c r="H37">
-        <v>291</v>
+      <c r="C37" s="1">
+        <f>C$32*Medicaid!E58*MEPS!$C33</f>
+        <v>451583.33158945007</v>
+      </c>
+      <c r="D37" s="1">
+        <f>D$32*Medicaid!F58*MEPS!$C33</f>
+        <v>24649.211483746141</v>
+      </c>
+      <c r="E37" s="1">
+        <f>E$32*Medicaid!G58*MEPS!$C33</f>
+        <v>2987.0294336078632</v>
+      </c>
+      <c r="F37" s="1">
+        <f>F$32*Medicaid!J58*MEPS!$D33</f>
+        <v>400623.72138593637</v>
+      </c>
+      <c r="G37" s="1">
+        <f>G$32*Medicaid!K58*MEPS!$D33</f>
+        <v>19401.457140973482</v>
+      </c>
+      <c r="H37" s="1">
+        <f>H$32*Medicaid!L58*MEPS!$D33</f>
+        <v>4025.989318170457</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -6970,24 +7161,6 @@
       <c r="B38" t="s">
         <v>29</v>
       </c>
-      <c r="C38">
-        <v>172781</v>
-      </c>
-      <c r="D38">
-        <v>14304</v>
-      </c>
-      <c r="E38">
-        <v>1415</v>
-      </c>
-      <c r="F38">
-        <v>133412</v>
-      </c>
-      <c r="G38">
-        <v>10077</v>
-      </c>
-      <c r="H38">
-        <v>1689</v>
-      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -6996,23 +7169,23 @@
       <c r="B39" t="s">
         <v>63</v>
       </c>
-      <c r="C39">
-        <v>2410</v>
-      </c>
-      <c r="D39">
-        <v>176</v>
+      <c r="C39" s="1">
+        <v>26876</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3777</v>
       </c>
       <c r="E39">
-        <v>68</v>
-      </c>
-      <c r="F39">
-        <v>602</v>
+        <v>453</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4940</v>
       </c>
       <c r="G39">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="H39">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -7020,23 +7193,29 @@
       <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="C40">
-        <v>196</v>
-      </c>
-      <c r="D40">
-        <v>14</v>
-      </c>
-      <c r="E40">
-        <v>7</v>
-      </c>
-      <c r="F40">
-        <v>43</v>
-      </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>5</v>
+      <c r="C40" s="1">
+        <f>C$39*Medicaid!E54*MEPS!$C35</f>
+        <v>1190.682088211234</v>
+      </c>
+      <c r="D40" s="1">
+        <f>D$39*Medicaid!F54*MEPS!$C35</f>
+        <v>166.10130057225425</v>
+      </c>
+      <c r="E40" s="1">
+        <f>E$39*Medicaid!G54*MEPS!$C35</f>
+        <v>23.948084013063369</v>
+      </c>
+      <c r="F40" s="1">
+        <f>F$39*Medicaid!J54*MEPS!$D35</f>
+        <v>315.01028280477402</v>
+      </c>
+      <c r="G40" s="1">
+        <f>G$39*Medicaid!K54*MEPS!$D35</f>
+        <v>4.760953155138365</v>
+      </c>
+      <c r="H40" s="1">
+        <f>H$39*Medicaid!L54*MEPS!$D35</f>
+        <v>3.338353002992259</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -7044,23 +7223,29 @@
       <c r="B41" t="s">
         <v>17</v>
       </c>
-      <c r="C41">
-        <v>423</v>
-      </c>
-      <c r="D41">
-        <v>45</v>
-      </c>
-      <c r="E41">
-        <v>21</v>
-      </c>
-      <c r="F41">
-        <v>94</v>
-      </c>
-      <c r="G41">
-        <v>18</v>
-      </c>
-      <c r="H41">
-        <v>32</v>
+      <c r="C41" s="1">
+        <f>C$39*Medicaid!E55*MEPS!$C36</f>
+        <v>3676.5958961308284</v>
+      </c>
+      <c r="D41" s="1">
+        <f>D$39*Medicaid!F55*MEPS!$C36</f>
+        <v>758.03388028011659</v>
+      </c>
+      <c r="E41" s="1">
+        <f>E$39*Medicaid!G55*MEPS!$C36</f>
+        <v>108.78677140357455</v>
+      </c>
+      <c r="F41" s="1">
+        <f>F$39*Medicaid!J55*MEPS!$D36</f>
+        <v>599.10760094302634</v>
+      </c>
+      <c r="G41" s="1">
+        <f>G$39*Medicaid!K55*MEPS!$D36</f>
+        <v>22.346310279238665</v>
+      </c>
+      <c r="H41" s="1">
+        <f>H$39*Medicaid!L55*MEPS!$D36</f>
+        <v>17.760362302569707</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -7068,22 +7253,28 @@
       <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
+        <f>C$39*Medicaid!E56*MEPS!$C37</f>
+        <v>153.38868124006356</v>
+      </c>
+      <c r="D42" s="1">
+        <f>D$39*Medicaid!F56*MEPS!$C37</f>
+        <v>4.47924609254021</v>
+      </c>
+      <c r="E42" s="1">
+        <f>E$39*Medicaid!G56*MEPS!$C37</f>
+        <v>0.16116747259100198</v>
+      </c>
+      <c r="F42" s="1">
+        <f>F$39*Medicaid!J56*MEPS!$D37</f>
         <v>0</v>
       </c>
-      <c r="D42">
+      <c r="G42" s="1">
+        <f>G$39*Medicaid!K56*MEPS!$D37</f>
         <v>0</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
+      <c r="H42" s="1">
+        <f>H$39*Medicaid!L56*MEPS!$D37</f>
         <v>0</v>
       </c>
     </row>
@@ -7092,23 +7283,29 @@
       <c r="B43" t="s">
         <v>19</v>
       </c>
-      <c r="C43">
-        <v>140</v>
-      </c>
-      <c r="D43">
-        <v>23</v>
-      </c>
-      <c r="E43">
-        <v>9</v>
-      </c>
-      <c r="F43">
-        <v>49</v>
-      </c>
-      <c r="G43">
-        <v>7</v>
-      </c>
-      <c r="H43">
-        <v>10</v>
+      <c r="C43" s="1">
+        <f>C$39*Medicaid!E57*MEPS!$C38</f>
+        <v>2176.0261048761681</v>
+      </c>
+      <c r="D43" s="1">
+        <f>D$39*Medicaid!F57*MEPS!$C38</f>
+        <v>679.03450101811256</v>
+      </c>
+      <c r="E43" s="1">
+        <f>E$39*Medicaid!G57*MEPS!$C38</f>
+        <v>88.27587493214341</v>
+      </c>
+      <c r="F43" s="1">
+        <f>F$39*Medicaid!J57*MEPS!$D38</f>
+        <v>327.6575590976696</v>
+      </c>
+      <c r="G43" s="1">
+        <f>G$39*Medicaid!K57*MEPS!$D38</f>
+        <v>10.06480356422321</v>
+      </c>
+      <c r="H43" s="1">
+        <f>H$39*Medicaid!L57*MEPS!$D38</f>
+        <v>6.0859283467651606</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -7116,23 +7313,29 @@
       <c r="B44" t="s">
         <v>20</v>
       </c>
-      <c r="C44">
-        <v>426</v>
-      </c>
-      <c r="D44">
-        <v>38</v>
-      </c>
-      <c r="E44">
-        <v>13</v>
-      </c>
-      <c r="F44">
-        <v>90</v>
-      </c>
-      <c r="G44">
-        <v>15</v>
-      </c>
-      <c r="H44">
-        <v>19</v>
+      <c r="C44" s="1">
+        <f>C$39*Medicaid!E58*MEPS!$C39</f>
+        <v>7943.5593832535005</v>
+      </c>
+      <c r="D44" s="1">
+        <f>D$39*Medicaid!F58*MEPS!$C39</f>
+        <v>1362.6971812452355</v>
+      </c>
+      <c r="E44" s="1">
+        <f>E$39*Medicaid!G58*MEPS!$C39</f>
+        <v>142.90290938919418</v>
+      </c>
+      <c r="F44" s="1">
+        <f>F$39*Medicaid!J58*MEPS!$D39</f>
+        <v>1108.4143402298271</v>
+      </c>
+      <c r="G44" s="1">
+        <f>G$39*Medicaid!K58*MEPS!$D39</f>
+        <v>38.154898312079226</v>
+      </c>
+      <c r="H44" s="1">
+        <f>H$39*Medicaid!L58*MEPS!$D39</f>
+        <v>20.959794167889402</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -7140,23 +7343,29 @@
       <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="C45">
-        <v>1184</v>
-      </c>
-      <c r="D45">
-        <v>120</v>
-      </c>
-      <c r="E45">
-        <v>50</v>
-      </c>
-      <c r="F45">
-        <v>276</v>
-      </c>
-      <c r="G45">
-        <v>44</v>
-      </c>
-      <c r="H45">
-        <v>67</v>
+      <c r="C45" s="1">
+        <f>C$39*Medicaid!E59*MEPS!$C40</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <f>D$39*Medicaid!F59*MEPS!$C40</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <f>E$39*Medicaid!G59*MEPS!$C40</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <f>F$39*Medicaid!J59*MEPS!$D40</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <f>G$39*Medicaid!K59*MEPS!$D40</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <f>H$39*Medicaid!L59*MEPS!$D40</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7172,7 +7381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -7184,7 +7393,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -7198,26 +7407,26 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>1451490</v>
